--- a/课后作业成绩2018/作业8成绩.xlsx
+++ b/课后作业成绩2018/作业8成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Documents\GitHub\Discrete-mathematics\课后作业成绩2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2921,9 @@
         <v>60</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2">
+        <v>40</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3247,7 +3249,9 @@
         <v>90</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>95</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
